--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124121a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124121a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último roubo que foram vítimas, no período de referência de 365 dias, mas não fizeram registro do último roubo na delegacia de polícia (%)</t>
   </si>
@@ -43,18 +43,12 @@
     <t>total (1)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -85,9 +76,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (2)(3)</t>
   </si>
   <si>
@@ -104,9 +92,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (2) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,31 +521,52 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>6.43797976978476</v>
+      </c>
+      <c r="C5">
+        <v>19.52444560309875</v>
+      </c>
+      <c r="D5">
+        <v>18.12519223170498</v>
+      </c>
+      <c r="E5">
+        <v>11.42686638981922</v>
+      </c>
+      <c r="F5">
+        <v>16.9825572892178</v>
+      </c>
+      <c r="G5">
+        <v>13.63924460827114</v>
+      </c>
+      <c r="H5">
+        <v>16.53993944141891</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>6.43797976978476</v>
+        <v>6.782249228747215</v>
       </c>
       <c r="C6">
-        <v>19.52444560309875</v>
+        <v>21.05902258361437</v>
       </c>
       <c r="D6">
-        <v>18.12519223170498</v>
+        <v>16.38481799801392</v>
       </c>
       <c r="E6">
-        <v>11.42686638981922</v>
+        <v>13.86067746230767</v>
       </c>
       <c r="F6">
-        <v>16.9825572892178</v>
+        <v>14.6992982549603</v>
       </c>
       <c r="G6">
-        <v>13.63924460827114</v>
+        <v>17.00108656429213</v>
       </c>
       <c r="H6">
-        <v>16.53993944141891</v>
+        <v>17.5054799093006</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -568,56 +574,77 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>6.782249228747215</v>
+        <v>7.362863091850729</v>
       </c>
       <c r="C7">
-        <v>21.05902258361437</v>
+        <v>21.32352150662117</v>
       </c>
       <c r="D7">
-        <v>16.38481799801392</v>
+        <v>20.40297067791213</v>
       </c>
       <c r="E7">
-        <v>13.86067746230767</v>
+        <v>14.65949702688031</v>
       </c>
       <c r="F7">
-        <v>14.6992982549603</v>
+        <v>17.02402443408327</v>
       </c>
       <c r="G7">
-        <v>17.00108656429213</v>
+        <v>16.13115302854761</v>
       </c>
       <c r="H7">
-        <v>17.5054799093006</v>
+        <v>17.06437422045551</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>6.578131754360788</v>
+      </c>
+      <c r="C8">
+        <v>19.23501065278753</v>
+      </c>
+      <c r="D8">
+        <v>15.21538218688402</v>
+      </c>
+      <c r="E8">
+        <v>11.79670701927577</v>
+      </c>
+      <c r="F8">
+        <v>14.71867532682267</v>
+      </c>
+      <c r="G8">
+        <v>15.09141866271735</v>
+      </c>
+      <c r="H8">
+        <v>17.6141767003391</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9">
-        <v>7.362863091850729</v>
+        <v>17.70648517608936</v>
       </c>
       <c r="C9">
-        <v>21.32352150662117</v>
+        <v>54.60404709834871</v>
       </c>
       <c r="D9">
-        <v>20.40297067791213</v>
+        <v>44.10936403032589</v>
       </c>
       <c r="E9">
-        <v>14.65949702688031</v>
+        <v>34.26767884866213</v>
       </c>
       <c r="F9">
-        <v>17.02402443408327</v>
+        <v>43.44256497782892</v>
       </c>
       <c r="G9">
-        <v>16.13115302854761</v>
+        <v>42.52419535930945</v>
       </c>
       <c r="H9">
-        <v>17.06437422045551</v>
+        <v>39.2554328371919</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -625,25 +652,25 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>6.578131754360788</v>
+        <v>6.60234921491157</v>
       </c>
       <c r="C10">
-        <v>19.23501065278753</v>
+        <v>20.1266171956218</v>
       </c>
       <c r="D10">
-        <v>15.21538218688402</v>
+        <v>15.88142997994778</v>
       </c>
       <c r="E10">
-        <v>11.79670701927577</v>
+        <v>12.40166582872253</v>
       </c>
       <c r="F10">
-        <v>14.71867532682267</v>
+        <v>15.57034407266527</v>
       </c>
       <c r="G10">
-        <v>15.09141866271735</v>
+        <v>15.99410610228494</v>
       </c>
       <c r="H10">
-        <v>17.6141767003391</v>
+        <v>15.97983061259911</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -651,25 +678,25 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>17.70648517608936</v>
+        <v>7.49423793017351</v>
       </c>
       <c r="C11">
-        <v>54.60404709834871</v>
+        <v>22.53413728137689</v>
       </c>
       <c r="D11">
-        <v>44.10936403032589</v>
+        <v>18.54536370286826</v>
       </c>
       <c r="E11">
-        <v>34.26767884866213</v>
+        <v>15.67876010593298</v>
       </c>
       <c r="F11">
-        <v>43.44256497782892</v>
+        <v>19.43202521138998</v>
       </c>
       <c r="G11">
-        <v>42.52419535930945</v>
+        <v>14.94379175794024</v>
       </c>
       <c r="H11">
-        <v>39.2554328371919</v>
+        <v>19.26465262561505</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -677,56 +704,77 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>6.60234921491157</v>
+        <v>9.556985213871382</v>
       </c>
       <c r="C12">
-        <v>20.1266171956218</v>
+        <v>32.650235786088</v>
       </c>
       <c r="D12">
-        <v>15.88142997994778</v>
+        <v>24.11695871963501</v>
       </c>
       <c r="E12">
-        <v>12.40166582872253</v>
+        <v>18.9663534749024</v>
       </c>
       <c r="F12">
-        <v>15.57034407266527</v>
+        <v>21.56869036777734</v>
       </c>
       <c r="G12">
-        <v>15.99410610228494</v>
+        <v>24.50911884797825</v>
       </c>
       <c r="H12">
-        <v>15.97983061259911</v>
+        <v>24.98815943187167</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B13">
+        <v>17.62816785447612</v>
+      </c>
+      <c r="C13">
+        <v>63.66927943989469</v>
+      </c>
+      <c r="D13">
+        <v>47.81331253092455</v>
+      </c>
+      <c r="E13">
+        <v>36.33963093457653</v>
+      </c>
+      <c r="F13">
+        <v>35.28293568554475</v>
+      </c>
+      <c r="G13">
+        <v>38.47234340680853</v>
+      </c>
+      <c r="H13">
+        <v>33.53383286263269</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14">
-        <v>7.49423793017351</v>
+        <v>11.17764086944077</v>
       </c>
       <c r="C14">
-        <v>22.53413728137689</v>
+        <v>30.62842602939182</v>
       </c>
       <c r="D14">
-        <v>18.54536370286826</v>
+        <v>32.64942442403618</v>
       </c>
       <c r="E14">
-        <v>15.67876010593298</v>
+        <v>22.15916431014319</v>
       </c>
       <c r="F14">
-        <v>19.43202521138998</v>
+        <v>26.00587618882025</v>
       </c>
       <c r="G14">
-        <v>14.94379175794024</v>
+        <v>28.27626687992003</v>
       </c>
       <c r="H14">
-        <v>19.26465262561505</v>
+        <v>29.18056687713275</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -734,25 +782,25 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>9.556985213871382</v>
+        <v>11.67854129122732</v>
       </c>
       <c r="C15">
-        <v>32.650235786088</v>
+        <v>36.86596573578449</v>
       </c>
       <c r="D15">
-        <v>24.11695871963501</v>
+        <v>35.47320489344849</v>
       </c>
       <c r="E15">
-        <v>18.9663534749024</v>
+        <v>20.05945588382879</v>
       </c>
       <c r="F15">
-        <v>21.56869036777734</v>
+        <v>31.7896203275777</v>
       </c>
       <c r="G15">
-        <v>24.50911884797825</v>
+        <v>31.17711077202001</v>
       </c>
       <c r="H15">
-        <v>24.98815943187167</v>
+        <v>24.39796245031775</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -760,25 +808,25 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>17.62816785447612</v>
+        <v>5.005060248252158</v>
       </c>
       <c r="C16">
-        <v>63.66927943989469</v>
+        <v>14.42840963280631</v>
       </c>
       <c r="D16">
-        <v>47.81331253092455</v>
+        <v>12.30933043314613</v>
       </c>
       <c r="E16">
-        <v>36.33963093457653</v>
+        <v>9.284608374188766</v>
       </c>
       <c r="F16">
-        <v>35.28293568554475</v>
+        <v>11.2698659114516</v>
       </c>
       <c r="G16">
-        <v>38.47234340680853</v>
+        <v>11.25147428651302</v>
       </c>
       <c r="H16">
-        <v>33.53383286263269</v>
+        <v>13.38654754033986</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -786,25 +834,25 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>11.17764086944077</v>
+        <v>17.20774582757251</v>
       </c>
       <c r="C17">
-        <v>30.62842602939182</v>
+        <v>38.15331056358978</v>
       </c>
       <c r="D17">
-        <v>32.64942442403618</v>
+        <v>54.87064069527633</v>
       </c>
       <c r="E17">
-        <v>22.15916431014319</v>
+        <v>39.79144918367555</v>
       </c>
       <c r="F17">
-        <v>26.00587618882025</v>
+        <v>42.74555443083423</v>
       </c>
       <c r="G17">
-        <v>28.27626687992003</v>
+        <v>32.36360409922573</v>
       </c>
       <c r="H17">
-        <v>29.18056687713275</v>
+        <v>38.63354042821575</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -812,56 +860,77 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>11.67854129122732</v>
+        <v>13.41689713065789</v>
       </c>
       <c r="C18">
-        <v>36.86596573578449</v>
+        <v>36.41775258412824</v>
       </c>
       <c r="D18">
-        <v>35.47320489344849</v>
+        <v>30.59178319398642</v>
       </c>
       <c r="E18">
-        <v>20.05945588382879</v>
+        <v>20.80320603539883</v>
       </c>
       <c r="F18">
-        <v>31.7896203275777</v>
+        <v>34.16684135275727</v>
       </c>
       <c r="G18">
-        <v>31.17711077202001</v>
+        <v>31.62225485642024</v>
       </c>
       <c r="H18">
-        <v>24.39796245031775</v>
+        <v>40.50298375738897</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B19">
+        <v>9.292189186846938</v>
+      </c>
+      <c r="C19">
+        <v>26.88192451545961</v>
+      </c>
+      <c r="D19">
+        <v>24.35928509496701</v>
+      </c>
+      <c r="E19">
+        <v>16.85061491915102</v>
+      </c>
+      <c r="F19">
+        <v>19.77560181356897</v>
+      </c>
+      <c r="G19">
+        <v>19.96682011784575</v>
+      </c>
+      <c r="H19">
+        <v>27.56094844323645</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>5.005060248252158</v>
+        <v>9.584110396618987</v>
       </c>
       <c r="C20">
-        <v>14.42840963280631</v>
+        <v>28.87857887878778</v>
       </c>
       <c r="D20">
-        <v>12.30933043314613</v>
+        <v>24.54141954182467</v>
       </c>
       <c r="E20">
-        <v>9.284608374188766</v>
+        <v>18.67589770459141</v>
       </c>
       <c r="F20">
-        <v>11.2698659114516</v>
+        <v>20.98338917633468</v>
       </c>
       <c r="G20">
-        <v>11.25147428651302</v>
+        <v>21.87417285966291</v>
       </c>
       <c r="H20">
-        <v>13.38654754033986</v>
+        <v>21.16773892326339</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -869,134 +938,25 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>17.20774582757251</v>
+        <v>10.09851008136636</v>
       </c>
       <c r="C21">
-        <v>38.15331056358978</v>
+        <v>32.69935510093101</v>
       </c>
       <c r="D21">
-        <v>54.87064069527633</v>
+        <v>22.65052966889655</v>
       </c>
       <c r="E21">
-        <v>39.79144918367555</v>
+        <v>18.98941926088448</v>
       </c>
       <c r="F21">
-        <v>42.74555443083423</v>
+        <v>26.16845201684405</v>
       </c>
       <c r="G21">
-        <v>32.36360409922573</v>
+        <v>23.15885899567308</v>
       </c>
       <c r="H21">
-        <v>38.63354042821575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>13.41689713065789</v>
-      </c>
-      <c r="C22">
-        <v>36.41775258412824</v>
-      </c>
-      <c r="D22">
-        <v>30.59178319398642</v>
-      </c>
-      <c r="E22">
-        <v>20.80320603539883</v>
-      </c>
-      <c r="F22">
-        <v>34.16684135275727</v>
-      </c>
-      <c r="G22">
-        <v>31.62225485642024</v>
-      </c>
-      <c r="H22">
-        <v>40.50298375738897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>9.292189186846938</v>
-      </c>
-      <c r="C23">
-        <v>26.88192451545961</v>
-      </c>
-      <c r="D23">
-        <v>24.35928509496701</v>
-      </c>
-      <c r="E23">
-        <v>16.85061491915102</v>
-      </c>
-      <c r="F23">
-        <v>19.77560181356897</v>
-      </c>
-      <c r="G23">
-        <v>19.96682011784575</v>
-      </c>
-      <c r="H23">
-        <v>27.56094844323645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>9.584110396618987</v>
-      </c>
-      <c r="C24">
-        <v>28.87857887878778</v>
-      </c>
-      <c r="D24">
-        <v>24.54141954182467</v>
-      </c>
-      <c r="E24">
-        <v>18.67589770459141</v>
-      </c>
-      <c r="F24">
-        <v>20.98338917633468</v>
-      </c>
-      <c r="G24">
-        <v>21.87417285966291</v>
-      </c>
-      <c r="H24">
-        <v>21.16773892326339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25">
-        <v>10.09851008136636</v>
-      </c>
-      <c r="C25">
-        <v>32.69935510093101</v>
-      </c>
-      <c r="D25">
-        <v>22.65052966889655</v>
-      </c>
-      <c r="E25">
-        <v>18.98941926088448</v>
-      </c>
-      <c r="F25">
-        <v>26.16845201684405</v>
-      </c>
-      <c r="G25">
-        <v>23.15885899567308</v>
-      </c>
-      <c r="H25">
         <v>23.81112492550274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
